--- a/resources_studies/Tuketal2017/TukSupTables/Suppl.Table.13_mod.xlsx
+++ b/resources_studies/Tuketal2017/TukSupTables/Suppl.Table.13_mod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karinemoussa/Documents/DrLiu_Lab/Shiny_Apps/xci-app-1/resources_studies/Tuketal2017/TukSupTables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E31C8E-9531-CA46-A43E-A20C7AA77512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D0F2CA-71F0-CD4E-8C5F-2C1930737DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Suppl. Table 13" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5485" uniqueCount="1396">
   <si>
     <t>Chr</t>
   </si>
@@ -4213,6 +4213,9 @@
   </si>
   <si>
     <t>Start_mapped</t>
+  </si>
+  <si>
+    <t>SEPTIN6</t>
   </si>
 </sst>
 </file>
@@ -4295,11 +4298,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4583,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M685"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G677" sqref="G677"/>
+    <sheetView tabSelected="1" topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="B502" sqref="B502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -23621,8 +23624,8 @@
       <c r="A501" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B501" s="4">
-        <v>42984</v>
+      <c r="B501" s="5" t="s">
+        <v>1395</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>6</v>
@@ -30622,7 +30625,7 @@
       </c>
     </row>
     <row r="685" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A685" s="5" t="s">
+      <c r="A685" s="4" t="s">
         <v>1392</v>
       </c>
     </row>
